--- a/Rescue_robot/Prototype/Robohood/PRINT PART/part list.xlsx
+++ b/Rescue_robot/Prototype/Robohood/PRINT PART/part list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Project_X\Rescue_robot\Prototype\Robohood\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Project_X\Rescue_robot\Prototype\Robohood\PRINT PART\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77822279-3D83-41E7-AE49-AE9035DF30CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9D5CF3-BBF5-4049-B19B-5C95D85DC4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26323" yWindow="2434" windowWidth="12351" windowHeight="6549" xr2:uid="{4F87B2CA-6BB6-441C-9DC3-D1E045E0933F}"/>
+    <workbookView xWindow="9866" yWindow="4449" windowWidth="12351" windowHeight="6548" xr2:uid="{4F87B2CA-6BB6-441C-9DC3-D1E045E0933F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>part</t>
   </si>
@@ -136,6 +136,12 @@
   </si>
   <si>
     <t>total time(m)</t>
+  </si>
+  <si>
+    <t>4h 1m</t>
+  </si>
+  <si>
+    <t>47g</t>
   </si>
 </sst>
 </file>
@@ -489,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F438BC6B-E3A5-4DED-B2B2-AB8A404C57C3}">
   <dimension ref="A2:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -539,6 +545,12 @@
       <c r="B4">
         <v>1</v>
       </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
